--- a/matrimony.com/Excel/refine.xlsx
+++ b/matrimony.com/Excel/refine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Age from</t>
   </si>
@@ -27,30 +27,12 @@
     <t>$25 K</t>
   </si>
   <si>
-    <t xml:space="preserve">1 st line regular </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd line regular modified </t>
-  </si>
-  <si>
-    <t>3rd line advance</t>
-  </si>
-  <si>
     <t>Non-smoker</t>
   </si>
   <si>
     <t>Regular smoker</t>
   </si>
   <si>
-    <t>4th line advance modifed</t>
-  </si>
-  <si>
-    <t>5th key word</t>
-  </si>
-  <si>
-    <t>6th line key word modified</t>
-  </si>
-  <si>
     <t>4ft 5in - 134cm</t>
   </si>
   <si>
@@ -85,93 +67,6 @@
   </si>
   <si>
     <t>state</t>
-  </si>
-  <si>
-    <t>validate the action in mailers - accept or decline , this should be auto login and reflect in view profile.</t>
-  </si>
-  <si>
-    <t>validate the  Based on action u2u mailer should be received, EI,PM and request.</t>
-  </si>
-  <si>
-    <t>weeky mailers should be validate.</t>
-  </si>
-  <si>
-    <t>validate the subject line should be correct.</t>
-  </si>
-  <si>
-    <t>validate desing and alingmnet - border.</t>
-  </si>
-  <si>
-    <t>Check the logo.</t>
-  </si>
-  <si>
-    <t>Validate the opp profile basic info like - age , height, etc.. Should be correct.</t>
-  </si>
-  <si>
-    <t>validate deep linking for android.</t>
-  </si>
-  <si>
-    <t>Click here - this should navigate communictaion setting- email session.</t>
-  </si>
-  <si>
-    <t>check the condent without spelling mistake.</t>
-  </si>
-  <si>
-    <t>validate the date in mail.</t>
-  </si>
-  <si>
-    <t>check the  design and alingment in mobile  browsers.</t>
-  </si>
-  <si>
-    <t>validate the horizontal view in mobile.</t>
-  </si>
-  <si>
-    <t>validate the all navigation links in horizontal view.</t>
-  </si>
-  <si>
-    <t>validate the dafault contact for every mailer-wishing your success in partner search.</t>
-  </si>
-  <si>
-    <t>Best wishes - appropriate domain.</t>
-  </si>
-  <si>
-    <t>validate the profile count in mailer.</t>
-  </si>
-  <si>
-    <t>validate the subject line according to gendor.</t>
-  </si>
-  <si>
-    <t>Member or members is singular or prual in mailers.</t>
-  </si>
-  <si>
-    <t>font style and font size.</t>
-  </si>
-  <si>
-    <t>validate the lines of the contant.</t>
-  </si>
-  <si>
-    <t>validate the From - info@. Appropriate domain.</t>
-  </si>
-  <si>
-    <t>Comma needs to divide in age, height etc…</t>
-  </si>
-  <si>
-    <t>validate the avator image as per gendor.</t>
-  </si>
-  <si>
-    <t>validate the fullstop for everysentence.</t>
-  </si>
-  <si>
-    <t>if you have logged in deep linking should be going to app otherwise it should go to loggin page.</t>
-  </si>
-  <si>
-    <t>user to user mailers should be validate.</t>
-  </si>
-  <si>
-    <t>click the navigation of the opp members.</t>
-  </si>
-  <si>
-    <t>validate the auto login senarios.</t>
   </si>
   <si>
     <t>Work permit</t>
@@ -629,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,116 +543,116 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -772,10 +667,10 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AO2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>2</v>
@@ -824,7 +719,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -985,268 +880,6 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="11" spans="1:43">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
